--- a/Datos/INEGI/Mexico/pobreza_sonora_processed.xlsx
+++ b/Datos/INEGI/Mexico/pobreza_sonora_processed.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -598,6 +603,11 @@
       <c r="P2" t="n">
         <v>2.5226573696</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -650,6 +660,11 @@
       <c r="P3" t="n">
         <v>2.2391353108</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +717,11 @@
       <c r="P4" t="n">
         <v>3.8090668488</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -754,6 +774,11 @@
       <c r="P5" t="n">
         <v>1.9548435494</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -806,6 +831,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -858,6 +888,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +945,11 @@
       <c r="P8" t="n">
         <v>2.226822482</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -962,6 +1002,11 @@
       <c r="P9" t="n">
         <v>3.5317539033</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1014,6 +1059,11 @@
       <c r="P10" t="n">
         <v>2.832092411</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1066,6 +1116,11 @@
       <c r="P11" t="n">
         <v>2.7503760684</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1118,6 +1173,11 @@
       <c r="P12" t="n">
         <v>2.4850200376</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1170,6 +1230,11 @@
       <c r="P13" t="n">
         <v>3.3890695692</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1222,6 +1287,11 @@
       <c r="P14" t="n">
         <v>3.2780690343</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1274,6 +1344,11 @@
       <c r="P15" t="n">
         <v>2.895567235</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1326,6 +1401,11 @@
       <c r="P16" t="n">
         <v>2.8147419859</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1377,6 +1457,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.1085937746</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>EUM</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,6 +1564,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1531,6 +1621,11 @@
       <c r="P2" t="n">
         <v>1.9726153274</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1583,6 +1678,11 @@
       <c r="P3" t="n">
         <v>1.8274654324</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1635,6 +1735,11 @@
       <c r="P4" t="n">
         <v>3.4057046129</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1687,6 +1792,11 @@
       <c r="P5" t="n">
         <v>1.668270168</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1739,6 +1849,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1791,6 +1906,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1843,6 +1963,11 @@
       <c r="P8" t="n">
         <v>1.7956883975</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1895,6 +2020,11 @@
       <c r="P9" t="n">
         <v>3.2457653098</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1947,6 +2077,11 @@
       <c r="P10" t="n">
         <v>2.4080364488</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1999,6 +2134,11 @@
       <c r="P11" t="n">
         <v>2.3376206356</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2051,6 +2191,11 @@
       <c r="P12" t="n">
         <v>1.9452603769</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2103,6 +2248,11 @@
       <c r="P13" t="n">
         <v>2.4693386382</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2155,6 +2305,11 @@
       <c r="P14" t="n">
         <v>2.6212470218</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2207,6 +2362,11 @@
       <c r="P15" t="n">
         <v>2.2450985284</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2259,6 +2419,11 @@
       <c r="P16" t="n">
         <v>2.1191553828</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2310,6 +2475,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.5149234799</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>CDMX</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +2493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2412,6 +2582,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2464,6 +2639,11 @@
       <c r="P2" t="n">
         <v>2.2814479022</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2516,6 +2696,11 @@
       <c r="P3" t="n">
         <v>2.0147403535</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2568,6 +2753,11 @@
       <c r="P4" t="n">
         <v>3.7285747258</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2620,6 +2810,11 @@
       <c r="P5" t="n">
         <v>1.8275184232</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2672,6 +2867,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2724,6 +2924,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2776,6 +2981,11 @@
       <c r="P8" t="n">
         <v>2.0453538067</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2828,6 +3038,11 @@
       <c r="P9" t="n">
         <v>3.4872267175</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2880,6 +3095,11 @@
       <c r="P10" t="n">
         <v>2.5026146444</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2932,6 +3152,11 @@
       <c r="P11" t="n">
         <v>2.6062098038</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2984,6 +3209,11 @@
       <c r="P12" t="n">
         <v>2.3406076476</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3036,6 +3266,11 @@
       <c r="P13" t="n">
         <v>3.2963767519</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3088,6 +3323,11 @@
       <c r="P14" t="n">
         <v>3.2383632722</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3140,6 +3380,11 @@
       <c r="P15" t="n">
         <v>2.4885349</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3192,6 +3437,11 @@
       <c r="P16" t="n">
         <v>2.3833560638</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3243,6 +3493,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.7986679007</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Dgo.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3345,6 +3600,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3397,6 +3657,11 @@
       <c r="P2" t="n">
         <v>2.1564011853</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3449,6 +3714,11 @@
       <c r="P3" t="n">
         <v>2.0630134878</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3501,6 +3771,11 @@
       <c r="P4" t="n">
         <v>3.4692532607</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3553,6 +3828,11 @@
       <c r="P5" t="n">
         <v>1.9408726959</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3605,6 +3885,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3657,6 +3942,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3709,6 +3999,11 @@
       <c r="P8" t="n">
         <v>2.0292976378</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3761,6 +4056,11 @@
       <c r="P9" t="n">
         <v>3.3295516936</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3813,6 +4113,11 @@
       <c r="P10" t="n">
         <v>2.5188039844</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3865,6 +4170,11 @@
       <c r="P11" t="n">
         <v>2.5607660118</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3917,6 +4227,11 @@
       <c r="P12" t="n">
         <v>2.3055948638</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3969,6 +4284,11 @@
       <c r="P13" t="n">
         <v>2.6618579628</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4021,6 +4341,11 @@
       <c r="P14" t="n">
         <v>3.0393693143</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4073,6 +4398,11 @@
       <c r="P15" t="n">
         <v>2.4477385128</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4125,6 +4455,11 @@
       <c r="P16" t="n">
         <v>2.1440516938</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4176,6 +4511,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.7479262591</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Gto.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +4529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4278,6 +4618,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4330,6 +4675,11 @@
       <c r="P2" t="n">
         <v>3.0676059973</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4382,6 +4732,11 @@
       <c r="P3" t="n">
         <v>2.544061129</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4434,6 +4789,11 @@
       <c r="P4" t="n">
         <v>3.9687502438</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4486,6 +4846,11 @@
       <c r="P5" t="n">
         <v>2.232468559</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4538,6 +4903,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4590,6 +4960,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4642,6 +5017,11 @@
       <c r="P8" t="n">
         <v>2.7944490411</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4694,6 +5074,11 @@
       <c r="P9" t="n">
         <v>3.787012047</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4746,6 +5131,11 @@
       <c r="P10" t="n">
         <v>3.6217692263</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4798,6 +5188,11 @@
       <c r="P11" t="n">
         <v>3.4182927247</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4850,6 +5245,11 @@
       <c r="P12" t="n">
         <v>3.0276226659</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4902,6 +5302,11 @@
       <c r="P13" t="n">
         <v>3.8906791162</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4954,6 +5359,11 @@
       <c r="P14" t="n">
         <v>3.4750193331</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5006,6 +5416,11 @@
       <c r="P15" t="n">
         <v>3.5771227833</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5058,6 +5473,11 @@
       <c r="P16" t="n">
         <v>3.3569520654</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5109,6 +5529,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.9311346377</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Gro.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5122,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5211,6 +5636,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5263,6 +5693,11 @@
       <c r="P2" t="n">
         <v>2.4989447527</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5315,6 +5750,11 @@
       <c r="P3" t="n">
         <v>2.291745006</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5367,6 +5807,11 @@
       <c r="P4" t="n">
         <v>3.5859814005</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5419,6 +5864,11 @@
       <c r="P5" t="n">
         <v>2.0546053968</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5471,6 +5921,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5523,6 +5978,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5575,6 +6035,11 @@
       <c r="P8" t="n">
         <v>2.2714969891</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5627,6 +6092,11 @@
       <c r="P9" t="n">
         <v>3.4326419231</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5679,6 +6149,11 @@
       <c r="P10" t="n">
         <v>3.0096662696</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5731,6 +6206,11 @@
       <c r="P11" t="n">
         <v>2.6647023343</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5783,6 +6263,11 @@
       <c r="P12" t="n">
         <v>2.42050328</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5835,6 +6320,11 @@
       <c r="P13" t="n">
         <v>3.4787117335</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5887,6 +6377,11 @@
       <c r="P14" t="n">
         <v>3.2020110265</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5939,6 +6434,11 @@
       <c r="P15" t="n">
         <v>2.9515371094</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5991,6 +6491,11 @@
       <c r="P16" t="n">
         <v>2.7135169444</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6042,6 +6547,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.1452171845</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Hgo.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6055,7 +6565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6144,6 +6654,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6196,6 +6711,11 @@
       <c r="P2" t="n">
         <v>2.090182899</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6248,6 +6768,11 @@
       <c r="P3" t="n">
         <v>1.9943528005</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6300,6 +6825,11 @@
       <c r="P4" t="n">
         <v>3.359591111</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6352,6 +6882,11 @@
       <c r="P5" t="n">
         <v>1.8521464146</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6404,6 +6939,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6456,6 +6996,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6508,6 +7053,11 @@
       <c r="P8" t="n">
         <v>1.933660586</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6560,6 +7110,11 @@
       <c r="P9" t="n">
         <v>3.2358635816</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6612,6 +7167,11 @@
       <c r="P10" t="n">
         <v>2.2646079053</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6664,6 +7224,11 @@
       <c r="P11" t="n">
         <v>2.4102424484</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6716,6 +7281,11 @@
       <c r="P12" t="n">
         <v>2.1905159923</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6768,6 +7338,11 @@
       <c r="P13" t="n">
         <v>2.5028363884</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6820,6 +7395,11 @@
       <c r="P14" t="n">
         <v>2.9332408918</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6872,6 +7452,11 @@
       <c r="P15" t="n">
         <v>2.3957646504</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6924,6 +7509,11 @@
       <c r="P16" t="n">
         <v>2.0745711886</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6975,6 +7565,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.6181326527</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Jal.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6988,7 +7583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7672,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7129,6 +7729,11 @@
       <c r="P2" t="n">
         <v>2.3107737674</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7181,6 +7786,11 @@
       <c r="P3" t="n">
         <v>2.1463072248</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7233,6 +7843,11 @@
       <c r="P4" t="n">
         <v>3.53044038</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7285,6 +7900,11 @@
       <c r="P5" t="n">
         <v>1.9232580391</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7337,6 +7957,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7389,6 +8014,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7441,6 +8071,11 @@
       <c r="P8" t="n">
         <v>2.1170632647</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7493,6 +8128,11 @@
       <c r="P9" t="n">
         <v>3.361845555</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7545,6 +8185,11 @@
       <c r="P10" t="n">
         <v>2.7050846381</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7597,6 +8242,11 @@
       <c r="P11" t="n">
         <v>2.5465781838</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7649,6 +8299,11 @@
       <c r="P12" t="n">
         <v>2.3673719942</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7701,6 +8356,11 @@
       <c r="P13" t="n">
         <v>2.9049428586</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7753,6 +8413,11 @@
       <c r="P14" t="n">
         <v>2.8168389305</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7805,6 +8470,11 @@
       <c r="P15" t="n">
         <v>2.7257840697</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7857,6 +8527,11 @@
       <c r="P16" t="n">
         <v>2.4969264063</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7908,6 +8583,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.8836978364</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Mex.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7921,7 +8601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8010,6 +8690,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8062,6 +8747,11 @@
       <c r="P2" t="n">
         <v>2.6331683446</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8114,6 +8804,11 @@
       <c r="P3" t="n">
         <v>2.3753733249</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8166,6 +8861,11 @@
       <c r="P4" t="n">
         <v>3.9987250161</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8218,6 +8918,11 @@
       <c r="P5" t="n">
         <v>2.2252479925</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8270,6 +8975,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8322,6 +9032,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8374,6 +9089,11 @@
       <c r="P8" t="n">
         <v>2.4120223943</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8426,6 +9146,11 @@
       <c r="P9" t="n">
         <v>3.6269963583</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8478,6 +9203,11 @@
       <c r="P10" t="n">
         <v>3.0403438508</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8530,6 +9260,11 @@
       <c r="P11" t="n">
         <v>2.9119805089</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8582,6 +9317,11 @@
       <c r="P12" t="n">
         <v>2.6406556826</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8634,6 +9374,11 @@
       <c r="P13" t="n">
         <v>3.882096046</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8686,6 +9431,11 @@
       <c r="P14" t="n">
         <v>3.5549679849</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8738,6 +9488,11 @@
       <c r="P15" t="n">
         <v>3.3055716667</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8790,6 +9545,11 @@
       <c r="P16" t="n">
         <v>2.9564185809</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8841,6 +9601,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.3497460215</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Mich.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8854,7 +9619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8943,6 +9708,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8995,6 +9765,11 @@
       <c r="P2" t="n">
         <v>2.4607441128</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9047,6 +9822,11 @@
       <c r="P3" t="n">
         <v>2.2814330795</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9099,6 +9879,11 @@
       <c r="P4" t="n">
         <v>3.5783238763</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9151,6 +9936,11 @@
       <c r="P5" t="n">
         <v>1.9977788082</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9203,6 +9993,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9255,6 +10050,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9307,6 +10107,11 @@
       <c r="P8" t="n">
         <v>2.2360057801</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9359,6 +10164,11 @@
       <c r="P9" t="n">
         <v>3.4516801889</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9411,6 +10221,11 @@
       <c r="P10" t="n">
         <v>2.9650197773</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9463,6 +10278,11 @@
       <c r="P11" t="n">
         <v>2.6639253375</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9515,6 +10335,11 @@
       <c r="P12" t="n">
         <v>2.4653284029</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9567,6 +10392,11 @@
       <c r="P13" t="n">
         <v>3.4848968123</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9619,6 +10449,11 @@
       <c r="P14" t="n">
         <v>2.9800571846</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9671,6 +10506,11 @@
       <c r="P15" t="n">
         <v>2.8805548034</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9723,6 +10563,11 @@
       <c r="P16" t="n">
         <v>2.6686644478</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9774,6 +10619,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.1067009493</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Mor.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -9787,7 +10637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9876,6 +10726,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9928,6 +10783,11 @@
       <c r="P2" t="n">
         <v>2.2897112748</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9980,6 +10840,11 @@
       <c r="P3" t="n">
         <v>1.9624371139</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10032,6 +10897,11 @@
       <c r="P4" t="n">
         <v>4.0316477617</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10084,6 +10954,11 @@
       <c r="P5" t="n">
         <v>1.8544434571</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10136,6 +11011,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10188,6 +11068,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10240,6 +11125,11 @@
       <c r="P8" t="n">
         <v>2.0219177144</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10292,6 +11182,11 @@
       <c r="P9" t="n">
         <v>3.490621673</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10344,6 +11239,11 @@
       <c r="P10" t="n">
         <v>2.578500769</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10396,6 +11296,11 @@
       <c r="P11" t="n">
         <v>2.5295482513</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10448,6 +11353,11 @@
       <c r="P12" t="n">
         <v>2.2004897288</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10500,6 +11410,11 @@
       <c r="P13" t="n">
         <v>3.2030595007</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10552,6 +11467,11 @@
       <c r="P14" t="n">
         <v>3.2208942702</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10604,6 +11524,11 @@
       <c r="P15" t="n">
         <v>2.9250188278</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10656,6 +11581,11 @@
       <c r="P16" t="n">
         <v>2.8137711456</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10707,6 +11637,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.9118969682</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Nay.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -10720,7 +11655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10809,6 +11744,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10861,6 +11801,11 @@
       <c r="P2" t="n">
         <v>1.9150358014</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10913,6 +11858,11 @@
       <c r="P3" t="n">
         <v>1.8619240588</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10965,6 +11915,11 @@
       <c r="P4" t="n">
         <v>3.427252798</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11017,6 +11972,11 @@
       <c r="P5" t="n">
         <v>1.7764878261</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11069,6 +12029,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11121,6 +12086,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11173,6 +12143,11 @@
       <c r="P8" t="n">
         <v>1.8263349747</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11225,6 +12200,11 @@
       <c r="P9" t="n">
         <v>3.1958709312</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11277,6 +12257,11 @@
       <c r="P10" t="n">
         <v>2.1263152747</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11329,6 +12314,11 @@
       <c r="P11" t="n">
         <v>2.3382539304</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11381,6 +12371,11 @@
       <c r="P12" t="n">
         <v>2.1037272459</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11433,6 +12428,11 @@
       <c r="P13" t="n">
         <v>2.0811729514</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11485,6 +12485,11 @@
       <c r="P14" t="n">
         <v>2.7366384771</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11537,6 +12542,11 @@
       <c r="P15" t="n">
         <v>2.0387474968</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11589,6 +12599,11 @@
       <c r="P16" t="n">
         <v>1.4527518371</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11640,6 +12655,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.3165117368</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Ags.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -11653,7 +12673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11742,6 +12762,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11794,6 +12819,11 @@
       <c r="P2" t="n">
         <v>1.8461856376</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11846,6 +12876,11 @@
       <c r="P3" t="n">
         <v>1.7777108113</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11898,6 +12933,11 @@
       <c r="P4" t="n">
         <v>3.2791303172</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11950,6 +12990,11 @@
       <c r="P5" t="n">
         <v>1.6789361586</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12002,6 +13047,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12054,6 +13104,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12106,6 +13161,11 @@
       <c r="P8" t="n">
         <v>1.7240950145</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12158,6 +13218,11 @@
       <c r="P9" t="n">
         <v>3.203828185</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12210,6 +13275,11 @@
       <c r="P10" t="n">
         <v>1.9188977597</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12262,6 +13332,11 @@
       <c r="P11" t="n">
         <v>2.3778685423</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12314,6 +13389,11 @@
       <c r="P12" t="n">
         <v>2.0392569765</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12366,6 +13446,11 @@
       <c r="P13" t="n">
         <v>2.2105283095</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12418,6 +13503,11 @@
       <c r="P14" t="n">
         <v>2.6956789122</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12470,6 +13560,11 @@
       <c r="P15" t="n">
         <v>1.9986925068</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12522,6 +13617,11 @@
       <c r="P16" t="n">
         <v>1.4498665899</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12573,6 +13673,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.0891530663</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -12586,7 +13691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12675,6 +13780,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12727,6 +13837,11 @@
       <c r="P2" t="n">
         <v>3.0986551298</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12779,6 +13894,11 @@
       <c r="P3" t="n">
         <v>2.7098909882</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12831,6 +13951,11 @@
       <c r="P4" t="n">
         <v>3.9432320949</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12883,6 +14008,11 @@
       <c r="P5" t="n">
         <v>2.4041623915</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12935,6 +14065,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12987,6 +14122,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13039,6 +14179,11 @@
       <c r="P8" t="n">
         <v>2.8318970264</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13091,6 +14236,11 @@
       <c r="P9" t="n">
         <v>3.7459299598</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13143,6 +14293,11 @@
       <c r="P10" t="n">
         <v>3.6123316399</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13195,6 +14350,11 @@
       <c r="P11" t="n">
         <v>3.3058589813</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13247,6 +14407,11 @@
       <c r="P12" t="n">
         <v>2.996405917</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13299,6 +14464,11 @@
       <c r="P13" t="n">
         <v>3.9984672676</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13351,6 +14521,11 @@
       <c r="P14" t="n">
         <v>3.4694255512</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13403,6 +14578,11 @@
       <c r="P15" t="n">
         <v>3.7101085233</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13455,6 +14635,11 @@
       <c r="P16" t="n">
         <v>3.3494425703</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13506,6 +14691,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.9531030164</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Oax.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -13519,7 +14709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13608,6 +14798,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13660,6 +14855,11 @@
       <c r="P2" t="n">
         <v>2.5605122486</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13712,6 +14912,11 @@
       <c r="P3" t="n">
         <v>2.3164727257</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13764,6 +14969,11 @@
       <c r="P4" t="n">
         <v>3.7694165174</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13816,6 +15026,11 @@
       <c r="P5" t="n">
         <v>2.2627479574</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13868,6 +15083,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13920,6 +15140,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13972,6 +15197,11 @@
       <c r="P8" t="n">
         <v>2.4337761707</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14024,6 +15254,11 @@
       <c r="P9" t="n">
         <v>3.5466050129</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14076,6 +15311,11 @@
       <c r="P10" t="n">
         <v>3.2388127646</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14128,6 +15368,11 @@
       <c r="P11" t="n">
         <v>2.8606081295</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14180,6 +15425,11 @@
       <c r="P12" t="n">
         <v>2.5564205326</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14232,6 +15482,11 @@
       <c r="P13" t="n">
         <v>3.7241378337</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14284,6 +15539,11 @@
       <c r="P14" t="n">
         <v>3.491795028</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14336,6 +15596,11 @@
       <c r="P15" t="n">
         <v>3.2183667044</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14388,6 +15653,11 @@
       <c r="P16" t="n">
         <v>2.7869636004</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14439,6 +15709,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.2596979433</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Pue.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -14452,7 +15727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14541,6 +15816,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -14593,6 +15873,11 @@
       <c r="P2" t="n">
         <v>2.108777515</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14645,6 +15930,11 @@
       <c r="P3" t="n">
         <v>2.0051251873</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14697,6 +15987,11 @@
       <c r="P4" t="n">
         <v>3.5236561803</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14749,6 +16044,11 @@
       <c r="P5" t="n">
         <v>1.8273540232</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14801,6 +16101,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -14853,6 +16158,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14905,6 +16215,11 @@
       <c r="P8" t="n">
         <v>1.9173646745</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14957,6 +16272,11 @@
       <c r="P9" t="n">
         <v>3.3441033126</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -15009,6 +16329,11 @@
       <c r="P10" t="n">
         <v>2.40630985</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -15061,6 +16386,11 @@
       <c r="P11" t="n">
         <v>2.4951646976</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -15113,6 +16443,11 @@
       <c r="P12" t="n">
         <v>2.1512896862</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -15165,6 +16500,11 @@
       <c r="P13" t="n">
         <v>2.5454517507</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -15217,6 +16557,11 @@
       <c r="P14" t="n">
         <v>2.767402776</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15269,6 +16614,11 @@
       <c r="P15" t="n">
         <v>2.348260982</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15321,6 +16671,11 @@
       <c r="P16" t="n">
         <v>1.844976116</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15372,6 +16727,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.6313307223</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Qro.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -15385,7 +16745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15474,6 +16834,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15526,6 +16891,11 @@
       <c r="P2" t="n">
         <v>2.5574234555</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15578,6 +16948,11 @@
       <c r="P3" t="n">
         <v>2.36821783</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -15630,6 +17005,11 @@
       <c r="P4" t="n">
         <v>3.6533948952</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15682,6 +17062,11 @@
       <c r="P5" t="n">
         <v>1.9768866675</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -15734,6 +17119,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -15786,6 +17176,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -15838,6 +17233,11 @@
       <c r="P8" t="n">
         <v>2.1602181913</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -15890,6 +17290,11 @@
       <c r="P9" t="n">
         <v>3.4643769876</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -15942,6 +17347,11 @@
       <c r="P10" t="n">
         <v>2.6222879234</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -15994,6 +17404,11 @@
       <c r="P11" t="n">
         <v>2.7321513995</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16046,6 +17461,11 @@
       <c r="P12" t="n">
         <v>2.5244044468</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16098,6 +17518,11 @@
       <c r="P13" t="n">
         <v>2.9416669166</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -16150,6 +17575,11 @@
       <c r="P14" t="n">
         <v>2.9541498068</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16202,6 +17632,11 @@
       <c r="P15" t="n">
         <v>2.6834554201</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -16254,6 +17689,11 @@
       <c r="P16" t="n">
         <v>2.8220247616</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -16305,6 +17745,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.0527996523</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Q. Roo</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -16318,7 +17763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16407,6 +17852,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16459,6 +17909,11 @@
       <c r="P2" t="n">
         <v>2.4669051081</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16511,6 +17966,11 @@
       <c r="P3" t="n">
         <v>2.2069691467</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16563,6 +18023,11 @@
       <c r="P4" t="n">
         <v>3.7675267637</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16615,6 +18080,11 @@
       <c r="P5" t="n">
         <v>1.9447450061</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16667,6 +18137,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16719,6 +18194,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16771,6 +18251,11 @@
       <c r="P8" t="n">
         <v>2.1914646094</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16823,6 +18308,11 @@
       <c r="P9" t="n">
         <v>3.4556782035</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16875,6 +18365,11 @@
       <c r="P10" t="n">
         <v>2.7078514326</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -16927,6 +18422,11 @@
       <c r="P11" t="n">
         <v>2.7147187731</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16979,6 +18479,11 @@
       <c r="P12" t="n">
         <v>2.4157155289</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17031,6 +18536,11 @@
       <c r="P13" t="n">
         <v>3.4891464474</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -17083,6 +18593,11 @@
       <c r="P14" t="n">
         <v>3.0543543627</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -17135,6 +18650,11 @@
       <c r="P15" t="n">
         <v>2.8875471653</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -17187,6 +18707,11 @@
       <c r="P16" t="n">
         <v>2.651465178</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -17238,6 +18763,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.1247866025</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>SLP</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -17251,7 +18781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17340,6 +18870,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17392,6 +18927,11 @@
       <c r="P2" t="n">
         <v>2.2104408148</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17444,6 +18984,11 @@
       <c r="P3" t="n">
         <v>2.080550723</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17496,6 +19041,11 @@
       <c r="P4" t="n">
         <v>3.5973843896</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17548,6 +19098,11 @@
       <c r="P5" t="n">
         <v>1.8266808762</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17600,6 +19155,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17652,6 +19212,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17704,6 +19269,11 @@
       <c r="P8" t="n">
         <v>1.952987395</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17756,6 +19326,11 @@
       <c r="P9" t="n">
         <v>3.384232727</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17808,6 +19383,11 @@
       <c r="P10" t="n">
         <v>2.3364046762</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17860,6 +19440,11 @@
       <c r="P11" t="n">
         <v>2.5256467509</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17912,6 +19497,11 @@
       <c r="P12" t="n">
         <v>2.2342390835</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17964,6 +19554,11 @@
       <c r="P13" t="n">
         <v>2.762990336</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18016,6 +19611,11 @@
       <c r="P14" t="n">
         <v>3.0661367846</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18068,6 +19668,11 @@
       <c r="P15" t="n">
         <v>2.4514430974</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18120,6 +19725,11 @@
       <c r="P16" t="n">
         <v>2.1982805511</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18171,6 +19781,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.6145370043</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Sin.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -18184,7 +19799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18273,6 +19888,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18325,6 +19945,11 @@
       <c r="P2" t="n">
         <v>2.2974044868</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18377,6 +20002,11 @@
       <c r="P3" t="n">
         <v>2.1473181712</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18429,6 +20059,11 @@
       <c r="P4" t="n">
         <v>3.5813670371</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18481,6 +20116,11 @@
       <c r="P5" t="n">
         <v>1.8221150814</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18533,6 +20173,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18585,6 +20230,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18637,6 +20287,11 @@
       <c r="P8" t="n">
         <v>1.9566020235</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18689,6 +20344,11 @@
       <c r="P9" t="n">
         <v>3.4528461309</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18741,6 +20401,11 @@
       <c r="P10" t="n">
         <v>2.3894552682</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18793,6 +20458,11 @@
       <c r="P11" t="n">
         <v>2.5873283562</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18845,6 +20515,11 @@
       <c r="P12" t="n">
         <v>2.3296100195</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18897,6 +20572,11 @@
       <c r="P13" t="n">
         <v>2.5753419127</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18949,6 +20629,11 @@
       <c r="P14" t="n">
         <v>2.8463946371</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19001,6 +20686,11 @@
       <c r="P15" t="n">
         <v>2.4550532367</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19053,6 +20743,11 @@
       <c r="P16" t="n">
         <v>2.354629401</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19104,6 +20799,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.7402709072</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Son.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -19117,7 +20817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19206,6 +20906,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19258,6 +20963,11 @@
       <c r="P2" t="n">
         <v>2.7929217474</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19310,6 +21020,11 @@
       <c r="P3" t="n">
         <v>2.5591749053</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19362,6 +21077,11 @@
       <c r="P4" t="n">
         <v>3.8142950252</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19414,6 +21134,11 @@
       <c r="P5" t="n">
         <v>2.2052675849</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19466,6 +21191,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19518,6 +21248,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19570,6 +21305,11 @@
       <c r="P8" t="n">
         <v>2.4809640996</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19622,6 +21362,11 @@
       <c r="P9" t="n">
         <v>3.6237328655</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19674,6 +21419,11 @@
       <c r="P10" t="n">
         <v>3.3479836433</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19726,6 +21476,11 @@
       <c r="P11" t="n">
         <v>3.1838653105</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19778,6 +21533,11 @@
       <c r="P12" t="n">
         <v>2.8352517069</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19830,6 +21590,11 @@
       <c r="P13" t="n">
         <v>3.4423261285</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19882,6 +21647,11 @@
       <c r="P14" t="n">
         <v>3.149842734</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19934,6 +21704,11 @@
       <c r="P15" t="n">
         <v>2.9882644376</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19986,6 +21761,11 @@
       <c r="P16" t="n">
         <v>2.9393416538</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20037,6 +21817,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.4746111948</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Tab.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -20050,7 +21835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20139,6 +21924,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20191,6 +21981,11 @@
       <c r="P2" t="n">
         <v>1.9918286615</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20243,6 +22038,11 @@
       <c r="P3" t="n">
         <v>1.8741829209</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20295,6 +22095,11 @@
       <c r="P4" t="n">
         <v>3.4928003972</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20347,6 +22152,11 @@
       <c r="P5" t="n">
         <v>1.7780727237</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -20399,6 +22209,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -20451,6 +22266,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20503,6 +22323,11 @@
       <c r="P8" t="n">
         <v>1.8606000618</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -20555,6 +22380,11 @@
       <c r="P9" t="n">
         <v>3.2960132319</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20607,6 +22437,11 @@
       <c r="P10" t="n">
         <v>2.2237880153</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -20659,6 +22494,11 @@
       <c r="P11" t="n">
         <v>2.3839659112</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -20711,6 +22551,11 @@
       <c r="P12" t="n">
         <v>2.1061340007</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20763,6 +22608,11 @@
       <c r="P13" t="n">
         <v>2.6418581939</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20815,6 +22665,11 @@
       <c r="P14" t="n">
         <v>2.641581699</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20867,6 +22722,11 @@
       <c r="P15" t="n">
         <v>2.3025858432</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20919,6 +22779,11 @@
       <c r="P16" t="n">
         <v>1.9744138486</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -20970,6 +22835,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.4913600032</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Tamps.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -20983,7 +22853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21072,6 +22942,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -21124,6 +22999,11 @@
       <c r="P2" t="n">
         <v>2.0888791289</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -21176,6 +23056,11 @@
       <c r="P3" t="n">
         <v>2.0474513083</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -21228,6 +23113,11 @@
       <c r="P4" t="n">
         <v>3.1987050681</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -21280,6 +23170,11 @@
       <c r="P5" t="n">
         <v>1.7206977964</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -21332,6 +23227,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -21384,6 +23284,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -21436,6 +23341,11 @@
       <c r="P8" t="n">
         <v>1.7966139506</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -21488,6 +23398,11 @@
       <c r="P9" t="n">
         <v>3.2997684198</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -21540,6 +23455,11 @@
       <c r="P10" t="n">
         <v>2.0635955376</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -21592,6 +23512,11 @@
       <c r="P11" t="n">
         <v>2.3497495295</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -21644,6 +23569,11 @@
       <c r="P12" t="n">
         <v>2.0945567196</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -21696,6 +23626,11 @@
       <c r="P13" t="n">
         <v>2.2244617844</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -21748,6 +23683,11 @@
       <c r="P14" t="n">
         <v>2.7006229717</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -21800,6 +23740,11 @@
       <c r="P15" t="n">
         <v>2.2167219412</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -21852,6 +23797,11 @@
       <c r="P16" t="n">
         <v>2.1382794996</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -21903,6 +23853,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.3971058415</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -21916,7 +23871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22005,6 +23960,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -22057,6 +24017,11 @@
       <c r="P2" t="n">
         <v>2.2019429282</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -22109,6 +24074,11 @@
       <c r="P3" t="n">
         <v>2.0497741195</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -22161,6 +24131,11 @@
       <c r="P4" t="n">
         <v>3.4757231405</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -22213,6 +24188,11 @@
       <c r="P5" t="n">
         <v>1.9079481761</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -22265,6 +24245,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -22317,6 +24302,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -22369,6 +24359,11 @@
       <c r="P8" t="n">
         <v>2.0798896511</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -22421,6 +24416,11 @@
       <c r="P9" t="n">
         <v>3.3778080255</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -22473,6 +24473,11 @@
       <c r="P10" t="n">
         <v>2.8037917716</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -22525,6 +24530,11 @@
       <c r="P11" t="n">
         <v>2.596598532</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -22577,6 +24587,11 @@
       <c r="P12" t="n">
         <v>2.2349559823</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -22629,6 +24644,11 @@
       <c r="P13" t="n">
         <v>3.2496538615</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -22681,6 +24701,11 @@
       <c r="P14" t="n">
         <v>3.2861104691</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -22733,6 +24758,11 @@
       <c r="P15" t="n">
         <v>2.648409437</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -22785,6 +24815,11 @@
       <c r="P16" t="n">
         <v>2.1888378469</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -22836,6 +24871,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.7820043338</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Tlax.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -22849,7 +24889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22938,6 +24978,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -22990,6 +25035,11 @@
       <c r="P2" t="n">
         <v>2.6771858137</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -23042,6 +25092,11 @@
       <c r="P3" t="n">
         <v>2.4036028162</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -23094,6 +25149,11 @@
       <c r="P4" t="n">
         <v>3.7838502966</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -23146,6 +25206,11 @@
       <c r="P5" t="n">
         <v>2.1140480975</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -23198,6 +25263,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -23250,6 +25320,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -23302,6 +25377,11 @@
       <c r="P8" t="n">
         <v>2.4525911003</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -23354,6 +25434,11 @@
       <c r="P9" t="n">
         <v>3.5678876263</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -23406,6 +25491,11 @@
       <c r="P10" t="n">
         <v>3.0859501897</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -23458,6 +25548,11 @@
       <c r="P11" t="n">
         <v>2.938904818</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -23510,6 +25605,11 @@
       <c r="P12" t="n">
         <v>2.6878886788</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -23562,6 +25662,11 @@
       <c r="P13" t="n">
         <v>3.6011780483</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -23614,6 +25719,11 @@
       <c r="P14" t="n">
         <v>3.2804135783</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -23666,6 +25776,11 @@
       <c r="P15" t="n">
         <v>3.244102462</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -23718,6 +25833,11 @@
       <c r="P16" t="n">
         <v>2.9049146068</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -23769,6 +25889,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.3736605512</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Ver.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -23782,7 +25907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23871,6 +25996,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -23923,6 +26053,11 @@
       <c r="P2" t="n">
         <v>2.618039467</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -23975,6 +26110,11 @@
       <c r="P3" t="n">
         <v>2.4379716456</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -24027,6 +26167,11 @@
       <c r="P4" t="n">
         <v>3.7756219372</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -24079,6 +26224,11 @@
       <c r="P5" t="n">
         <v>2.0011638645</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -24131,6 +26281,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -24183,6 +26338,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -24235,6 +26395,11 @@
       <c r="P8" t="n">
         <v>2.2612022265</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -24287,6 +26452,11 @@
       <c r="P9" t="n">
         <v>3.5653639173</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -24339,6 +26509,11 @@
       <c r="P10" t="n">
         <v>2.8687633835</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -24391,6 +26566,11 @@
       <c r="P11" t="n">
         <v>2.9645210062</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -24443,6 +26623,11 @@
       <c r="P12" t="n">
         <v>2.6594485218</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -24495,6 +26680,11 @@
       <c r="P13" t="n">
         <v>3.3276445344</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -24547,6 +26737,11 @@
       <c r="P14" t="n">
         <v>2.8437094903</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -24599,6 +26794,11 @@
       <c r="P15" t="n">
         <v>2.8033541834</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -24651,6 +26851,11 @@
       <c r="P16" t="n">
         <v>2.7219871787</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -24702,6 +26907,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.1827065532</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Yuc.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -24715,7 +26925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24804,6 +27014,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -24856,6 +27071,11 @@
       <c r="P2" t="n">
         <v>2.0197595027</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -24908,6 +27128,11 @@
       <c r="P3" t="n">
         <v>1.8781418316</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -24960,6 +27185,11 @@
       <c r="P4" t="n">
         <v>3.3421798682</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -25012,6 +27242,11 @@
       <c r="P5" t="n">
         <v>1.7819729209</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -25064,6 +27299,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -25116,6 +27356,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -25168,6 +27413,11 @@
       <c r="P8" t="n">
         <v>1.9142533654</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -25220,6 +27470,11 @@
       <c r="P9" t="n">
         <v>3.2496049825</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -25272,6 +27527,11 @@
       <c r="P10" t="n">
         <v>2.3890193992</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -25324,6 +27584,11 @@
       <c r="P11" t="n">
         <v>2.4325646438</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -25376,6 +27641,11 @@
       <c r="P12" t="n">
         <v>2.0652263379</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -25428,6 +27698,11 @@
       <c r="P13" t="n">
         <v>2.7334830764</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -25480,6 +27755,11 @@
       <c r="P14" t="n">
         <v>2.9194974919</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -25532,6 +27812,11 @@
       <c r="P15" t="n">
         <v>2.5375804266</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -25584,6 +27869,11 @@
       <c r="P16" t="n">
         <v>1.9424128543</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -25635,6 +27925,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.6414077813</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Zac.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -25648,7 +27943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25737,6 +28032,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -25789,6 +28089,11 @@
       <c r="P2" t="n">
         <v>2.2799883497</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -25841,6 +28146,11 @@
       <c r="P3" t="n">
         <v>2.0872409755</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -25893,6 +28203,11 @@
       <c r="P4" t="n">
         <v>3.6946935725</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -25945,6 +28260,11 @@
       <c r="P5" t="n">
         <v>1.8488410106</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -25997,6 +28317,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26049,6 +28374,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -26101,6 +28431,11 @@
       <c r="P8" t="n">
         <v>1.9419151859</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -26153,6 +28488,11 @@
       <c r="P9" t="n">
         <v>3.4563461985</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -26205,6 +28545,11 @@
       <c r="P10" t="n">
         <v>2.3969031335</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26257,6 +28602,11 @@
       <c r="P11" t="n">
         <v>2.6347841735</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26309,6 +28659,11 @@
       <c r="P12" t="n">
         <v>2.316711445</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -26361,6 +28716,11 @@
       <c r="P13" t="n">
         <v>2.5509137013</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -26413,6 +28773,11 @@
       <c r="P14" t="n">
         <v>2.7097267181</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -26465,6 +28830,11 @@
       <c r="P15" t="n">
         <v>2.3499869523</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -26517,6 +28887,11 @@
       <c r="P16" t="n">
         <v>2.2979559084</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -26568,6 +28943,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.637185582</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -26581,7 +28961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26670,6 +29050,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -26722,6 +29107,11 @@
       <c r="P2" t="n">
         <v>2.5286170672</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -26774,6 +29164,11 @@
       <c r="P3" t="n">
         <v>2.3165853224</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -26826,6 +29221,11 @@
       <c r="P4" t="n">
         <v>3.6493595774</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -26878,6 +29278,11 @@
       <c r="P5" t="n">
         <v>2.1514242018</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -26930,6 +29335,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26982,6 +29392,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -27034,6 +29449,11 @@
       <c r="P8" t="n">
         <v>2.3550371242</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -27086,6 +29506,11 @@
       <c r="P9" t="n">
         <v>3.58349418</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -27138,6 +29563,11 @@
       <c r="P10" t="n">
         <v>3.0615146513</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -27190,6 +29620,11 @@
       <c r="P11" t="n">
         <v>3.0144116392</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -27242,6 +29677,11 @@
       <c r="P12" t="n">
         <v>2.6327243129</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -27294,6 +29734,11 @@
       <c r="P13" t="n">
         <v>3.3708035314</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -27346,6 +29791,11 @@
       <c r="P14" t="n">
         <v>3.0118292625</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -27398,6 +29848,11 @@
       <c r="P15" t="n">
         <v>3.0804817769</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -27450,6 +29905,11 @@
       <c r="P16" t="n">
         <v>2.5874441115</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -27501,6 +29961,11 @@
       </c>
       <c r="P17" t="n">
         <v>2.1064230742</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Camp.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -27514,7 +29979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27603,6 +30068,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -27655,6 +30125,11 @@
       <c r="P2" t="n">
         <v>2.0478702345</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -27707,6 +30182,11 @@
       <c r="P3" t="n">
         <v>1.9562355673</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -27759,6 +30239,11 @@
       <c r="P4" t="n">
         <v>3.4677381511</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -27811,6 +30296,11 @@
       <c r="P5" t="n">
         <v>1.7202838298</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -27863,6 +30353,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -27915,6 +30410,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -27967,6 +30467,11 @@
       <c r="P8" t="n">
         <v>1.8256205132</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -28019,6 +30524,11 @@
       <c r="P9" t="n">
         <v>3.2291221804</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -28071,6 +30581,11 @@
       <c r="P10" t="n">
         <v>1.9471985121</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -28123,6 +30638,11 @@
       <c r="P11" t="n">
         <v>2.3977525295</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -28175,6 +30695,11 @@
       <c r="P12" t="n">
         <v>2.2462902083</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -28227,6 +30752,11 @@
       <c r="P13" t="n">
         <v>2.2882520809</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -28279,6 +30809,11 @@
       <c r="P14" t="n">
         <v>2.5691565973</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -28331,6 +30866,11 @@
       <c r="P15" t="n">
         <v>2.0945077293</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -28383,6 +30923,11 @@
       <c r="P16" t="n">
         <v>1.5956363297</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -28434,6 +30979,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.136675084</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Coah.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -28447,7 +30997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28536,6 +31086,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -28588,6 +31143,11 @@
       <c r="P2" t="n">
         <v>2.1171911631</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -28640,6 +31200,11 @@
       <c r="P3" t="n">
         <v>2.022198223</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -28692,6 +31257,11 @@
       <c r="P4" t="n">
         <v>3.516194332</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -28744,6 +31314,11 @@
       <c r="P5" t="n">
         <v>1.8279032215</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -28796,6 +31371,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -28848,6 +31428,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -28900,6 +31485,11 @@
       <c r="P8" t="n">
         <v>1.9126376734</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -28952,6 +31542,11 @@
       <c r="P9" t="n">
         <v>3.3849641946</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -29004,6 +31599,11 @@
       <c r="P10" t="n">
         <v>2.3457310991</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -29056,6 +31656,11 @@
       <c r="P11" t="n">
         <v>2.5141627556</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -29108,6 +31713,11 @@
       <c r="P12" t="n">
         <v>2.1666906876</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -29160,6 +31770,11 @@
       <c r="P13" t="n">
         <v>2.7046020896</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -29212,6 +31827,11 @@
       <c r="P14" t="n">
         <v>3.0622668877</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -29264,6 +31884,11 @@
       <c r="P15" t="n">
         <v>2.3354728168</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -29316,6 +31941,11 @@
       <c r="P16" t="n">
         <v>2.0209494774</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -29367,6 +31997,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.6310689926</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Col.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -29380,7 +32015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29469,6 +32104,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -29521,6 +32161,11 @@
       <c r="P2" t="n">
         <v>3.2228269276</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -29573,6 +32218,11 @@
       <c r="P3" t="n">
         <v>2.6754754414</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -29625,6 +32275,11 @@
       <c r="P4" t="n">
         <v>4.0065539637</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -29677,6 +32332,11 @@
       <c r="P5" t="n">
         <v>2.4674812243</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -29729,6 +32389,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -29781,6 +32446,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -29833,6 +32503,11 @@
       <c r="P8" t="n">
         <v>3.0470325419</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -29885,6 +32560,11 @@
       <c r="P9" t="n">
         <v>3.8291498194</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -29937,6 +32617,11 @@
       <c r="P10" t="n">
         <v>3.7947139446</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -29989,6 +32674,11 @@
       <c r="P11" t="n">
         <v>3.4407044759</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -30041,6 +32731,11 @@
       <c r="P12" t="n">
         <v>3.2171806403</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -30093,6 +32788,11 @@
       <c r="P13" t="n">
         <v>4.3162680017</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -30145,6 +32845,11 @@
       <c r="P14" t="n">
         <v>3.6955687865</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -30197,6 +32902,11 @@
       <c r="P15" t="n">
         <v>4.0657175274</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -30249,6 +32959,11 @@
       <c r="P16" t="n">
         <v>3.4594017146</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -30300,6 +33015,11 @@
       </c>
       <c r="P17" t="n">
         <v>3.0353021312</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Chis.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -30313,7 +33033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30402,6 +33122,11 @@
           <t>2024_prom</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -30454,6 +33179,11 @@
       <c r="P2" t="n">
         <v>2.2843299682</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -30506,6 +33236,11 @@
       <c r="P3" t="n">
         <v>1.9947538612</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -30558,6 +33293,11 @@
       <c r="P4" t="n">
         <v>3.9512223181</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -30610,6 +33350,11 @@
       <c r="P5" t="n">
         <v>1.6913539984</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -30662,6 +33407,11 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -30714,6 +33464,11 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -30766,6 +33521,11 @@
       <c r="P8" t="n">
         <v>1.8856551606</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -30818,6 +33578,11 @@
       <c r="P9" t="n">
         <v>3.4848260586</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -30870,6 +33635,11 @@
       <c r="P10" t="n">
         <v>2.2333015031</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -30922,6 +33692,11 @@
       <c r="P11" t="n">
         <v>2.5101962881</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -30974,6 +33749,11 @@
       <c r="P12" t="n">
         <v>2.2258475514</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -31026,6 +33806,11 @@
       <c r="P13" t="n">
         <v>2.9128551611</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -31078,6 +33863,11 @@
       <c r="P14" t="n">
         <v>3.5385118934</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -31130,6 +33920,11 @@
       <c r="P15" t="n">
         <v>2.5004170424</v>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -31182,6 +33977,11 @@
       <c r="P16" t="n">
         <v>2.5438073803</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -31233,6 +34033,11 @@
       </c>
       <c r="P17" t="n">
         <v>1.6551121321</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Chih.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Datos/INEGI/Mexico/pobreza_sonora_processed.xlsx
+++ b/Datos/INEGI/Mexico/pobreza_sonora_processed.xlsx
@@ -605,7 +605,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>EUM</t>
+          <t>Estados Unidos Mexicanos</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>CDMX</t>
+          <t>Ciudad de México</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Dgo.</t>
+          <t>Durango</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Gto.</t>
+          <t>Guanajuato</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Gro.</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Hgo.</t>
+          <t>Hidalgo</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Jal.</t>
+          <t>Jalisco</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Mex.</t>
+          <t>Estado de México</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Mich.</t>
+          <t>Michoacán</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Mor.</t>
+          <t>Morelos</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Nay.</t>
+          <t>Nayarit</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Ags.</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
     </row>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13334,7 +13334,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>Nuevo León</t>
         </is>
       </c>
     </row>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14010,7 +14010,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Oax.</t>
+          <t>Oaxaca</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15028,7 +15028,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15199,7 +15199,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Pue.</t>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16046,7 +16046,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16217,7 +16217,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Qro.</t>
+          <t>Querétaro</t>
         </is>
       </c>
     </row>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -16950,7 +16950,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17007,7 +17007,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17064,7 +17064,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17406,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17691,7 +17691,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Q. Roo</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
     </row>
@@ -17911,7 +17911,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18082,7 +18082,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18196,7 +18196,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18310,7 +18310,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18367,7 +18367,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18538,7 +18538,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18652,7 +18652,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
     </row>
@@ -18929,7 +18929,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19157,7 +19157,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19328,7 +19328,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19442,7 +19442,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19499,7 +19499,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19556,7 +19556,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19784,7 +19784,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Sin.</t>
+          <t>Sinaloa</t>
         </is>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20061,7 +20061,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20118,7 +20118,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20289,7 +20289,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20346,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20574,7 +20574,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Son.</t>
+          <t>Sonora</t>
         </is>
       </c>
     </row>
@@ -20965,7 +20965,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21022,7 +21022,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21250,7 +21250,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21421,7 +21421,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21478,7 +21478,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21706,7 +21706,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21763,7 +21763,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Tab.</t>
+          <t>Tabasco</t>
         </is>
       </c>
     </row>
@@ -21983,7 +21983,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22154,7 +22154,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22211,7 +22211,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22268,7 +22268,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22325,7 +22325,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22382,7 +22382,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22496,7 +22496,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22610,7 +22610,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22667,7 +22667,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22781,7 +22781,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -22838,7 +22838,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Tamps.</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23229,7 +23229,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23400,7 +23400,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23571,7 +23571,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23628,7 +23628,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23685,7 +23685,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23742,7 +23742,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23799,7 +23799,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
@@ -24019,7 +24019,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24076,7 +24076,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24304,7 +24304,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24418,7 +24418,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24532,7 +24532,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24589,7 +24589,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24646,7 +24646,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24703,7 +24703,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24760,7 +24760,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24817,7 +24817,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -24874,7 +24874,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Tlax.</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
     </row>
@@ -25037,7 +25037,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25094,7 +25094,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25208,7 +25208,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25322,7 +25322,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25379,7 +25379,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25493,7 +25493,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25607,7 +25607,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25664,7 +25664,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25721,7 +25721,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25778,7 +25778,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25835,7 +25835,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -25892,7 +25892,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Ver.</t>
+          <t>Veracruz</t>
         </is>
       </c>
     </row>
@@ -26055,7 +26055,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26112,7 +26112,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26169,7 +26169,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26226,7 +26226,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26397,7 +26397,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26454,7 +26454,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26511,7 +26511,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26682,7 +26682,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26739,7 +26739,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26853,7 +26853,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -26910,7 +26910,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Yuc.</t>
+          <t>Yucatán</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27187,7 +27187,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27244,7 +27244,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27301,7 +27301,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27358,7 +27358,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27415,7 +27415,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27472,7 +27472,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27529,7 +27529,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27700,7 +27700,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27814,7 +27814,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27871,7 +27871,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -27928,7 +27928,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Zac.</t>
+          <t>Zacatecas</t>
         </is>
       </c>
     </row>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28148,7 +28148,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28205,7 +28205,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28262,7 +28262,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28319,7 +28319,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28433,7 +28433,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28547,7 +28547,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28604,7 +28604,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28661,7 +28661,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28718,7 +28718,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28775,7 +28775,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28832,7 +28832,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28889,7 +28889,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -28946,7 +28946,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
     </row>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29223,7 +29223,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29280,7 +29280,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29337,7 +29337,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29394,7 +29394,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29451,7 +29451,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29565,7 +29565,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29622,7 +29622,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29679,7 +29679,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29736,7 +29736,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29793,7 +29793,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29850,7 +29850,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29907,7 +29907,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -29964,7 +29964,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Camp.</t>
+          <t>Campeche</t>
         </is>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30184,7 +30184,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30241,7 +30241,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30298,7 +30298,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30412,7 +30412,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30469,7 +30469,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30526,7 +30526,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30583,7 +30583,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30640,7 +30640,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30697,7 +30697,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30754,7 +30754,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30811,7 +30811,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30868,7 +30868,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30925,7 +30925,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -30982,7 +30982,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Coah.</t>
+          <t>Coahuila</t>
         </is>
       </c>
     </row>
@@ -31145,7 +31145,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31259,7 +31259,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31316,7 +31316,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31373,7 +31373,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31430,7 +31430,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31487,7 +31487,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31544,7 +31544,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31601,7 +31601,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31658,7 +31658,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31772,7 +31772,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31829,7 +31829,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31886,7 +31886,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -31943,7 +31943,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -32000,7 +32000,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Col.</t>
+          <t>Colima</t>
         </is>
       </c>
     </row>
@@ -32163,7 +32163,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32220,7 +32220,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32277,7 +32277,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32334,7 +32334,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32391,7 +32391,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32448,7 +32448,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32562,7 +32562,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32619,7 +32619,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32733,7 +32733,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32790,7 +32790,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32847,7 +32847,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32904,7 +32904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -32961,7 +32961,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -33018,7 +33018,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Chis.</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33238,7 +33238,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33352,7 +33352,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33409,7 +33409,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33466,7 +33466,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33523,7 +33523,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33580,7 +33580,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33637,7 +33637,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33694,7 +33694,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33751,7 +33751,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33808,7 +33808,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33865,7 +33865,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33922,7 +33922,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -33979,7 +33979,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
@@ -34036,7 +34036,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Chih.</t>
+          <t>Chihuahua</t>
         </is>
       </c>
     </row>
